--- a/data_processing/ExlToInsertScript/Book1.xlsx
+++ b/data_processing/ExlToInsertScript/Book1.xlsx
@@ -1399,7 +1399,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1469,7 +1469,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3698,7 +3698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="21.75">
       <c r="A175" s="3">
         <v>6709</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="21.75">
       <c r="A176" s="3">
         <v>6710</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="21.75">
       <c r="A177" s="3">
         <v>6720</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="21.75">
       <c r="A178" s="3">
         <v>6750</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="21.75">
       <c r="A179" s="3">
         <v>6760</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="21.75">
       <c r="A180" s="3">
         <v>6800</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="21.75">
       <c r="A181" s="3">
         <v>6900</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="21.75">
       <c r="A182" s="3">
         <v>6910</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="21.75">
       <c r="A183" s="3">
         <v>7000</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="21.75">
       <c r="A184" s="3">
         <v>7007</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="21.75">
       <c r="A185" s="3">
         <v>7009</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="21.75">
       <c r="A186" s="3">
         <v>8000</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="21.75">
       <c r="A187" s="3">
         <v>8007</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="21.75">
       <c r="A188" s="3">
         <v>8009</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="21.75">
       <c r="A189" s="3">
         <v>8010</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="21.75">
       <c r="A190" s="3">
         <v>8100</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="21.75">
       <c r="A191" s="3">
         <v>8110</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="21.75">
       <c r="A192" s="3">
         <v>8200</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="21.75">
       <c r="A193" s="3">
         <v>8210</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="21.75">
       <c r="A194" s="3">
         <v>8300</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="21.75">
       <c r="A195" s="3">
         <v>8320</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="21.75">
       <c r="A196" s="3">
         <v>8330</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="21.75">
       <c r="A197" s="3">
         <v>8340</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="21.75">
       <c r="A198" s="3">
         <v>8400</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="21.75">
       <c r="A199" s="3">
         <v>8407</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="21.75">
       <c r="A200" s="3">
         <v>8409</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="21.75">
       <c r="A201" s="3">
         <v>8500</v>
       </c>
